--- a/tests/3/case_3_weights.xlsx
+++ b/tests/3/case_3_weights.xlsx
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="12">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="9"/>

--- a/tests/3/case_3_weights.xlsx
+++ b/tests/3/case_3_weights.xlsx
@@ -1571,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="12">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="9"/>
